--- a/Data/light_curve.xlsx
+++ b/Data/light_curve.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardbao/Projects/Cyberpunk/oumuamua/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardbao/Projects/Asteroid/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7489B8-50FB-0C42-8079-26F61794BF0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBF760F-FC1A-DC45-8566-C485C2FDABDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{28D63E42-AF1B-4244-B17E-8977D21AF5F0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="11">
   <si>
     <t>g</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -427,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEA49DC-628B-FB42-BE0E-097E782FB610}">
-  <dimension ref="A1:E339"/>
+  <dimension ref="A1:E367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2952,2689 +2961,2689 @@
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B149" s="1">
+      <c r="A149" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149">
         <v>58053.078872999999</v>
       </c>
-      <c r="C149" s="1">
-        <v>23.614999999999998</v>
-      </c>
-      <c r="D149" s="1">
+      <c r="C149">
+        <v>24.532</v>
+      </c>
+      <c r="D149">
         <v>0.29099999999999998</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E149" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B150" s="1">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150">
         <v>58053.082442999999</v>
       </c>
-      <c r="C150" s="1">
-        <v>23.834</v>
-      </c>
-      <c r="D150" s="1">
+      <c r="C150">
+        <v>24.75</v>
+      </c>
+      <c r="D150">
         <v>0.34399999999999997</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E150" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="1" t="s">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151">
+        <v>58053.085811999998</v>
+      </c>
+      <c r="C151">
+        <v>24.728000000000002</v>
+      </c>
+      <c r="D151">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="E151" t="s">
         <v>0</v>
       </c>
-      <c r="B151" s="1">
-        <v>58053.085811999998</v>
-      </c>
-      <c r="C151" s="1">
-        <v>24.672999999999998</v>
-      </c>
-      <c r="D151" s="1">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="E151" s="1" t="s">
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152">
+        <v>58053.089612000003</v>
+      </c>
+      <c r="C152">
+        <v>25.234000000000002</v>
+      </c>
+      <c r="D152">
+        <v>2.355</v>
+      </c>
+      <c r="E152" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B152" s="1">
-        <v>58053.089612000003</v>
-      </c>
-      <c r="C152" s="1">
-        <v>25.18</v>
-      </c>
-      <c r="D152" s="1">
-        <v>2.355</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B153" s="1">
+      <c r="A153" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153">
         <v>58053.093830999998</v>
       </c>
-      <c r="C153" s="1">
-        <v>23.989000000000001</v>
-      </c>
-      <c r="D153" s="1">
+      <c r="C153">
+        <v>24.902999999999999</v>
+      </c>
+      <c r="D153">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E153" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B154" s="1">
+      <c r="A154" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154">
         <v>58053.097381</v>
       </c>
-      <c r="C154" s="1">
-        <v>23.651</v>
-      </c>
-      <c r="D154" s="1">
+      <c r="C154">
+        <v>24.564</v>
+      </c>
+      <c r="D154">
         <v>0.23499999999999999</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E154" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B155" s="1">
+      <c r="A155" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155">
         <v>58053.100980000003</v>
       </c>
-      <c r="C155" s="1">
-        <v>23.484999999999999</v>
-      </c>
-      <c r="D155" s="1">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="E155" s="1" t="s">
+      <c r="C155">
+        <v>24.707000000000001</v>
+      </c>
+      <c r="D155">
+        <v>0.248</v>
+      </c>
+      <c r="E155" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B156" s="1">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156">
         <v>58053.106019999999</v>
       </c>
-      <c r="C156" s="1">
-        <v>23.271999999999998</v>
-      </c>
-      <c r="D156" s="1">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="E156" s="1" t="s">
+      <c r="C156">
+        <v>24.492999999999999</v>
+      </c>
+      <c r="D156">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E156" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B157" s="1">
+      <c r="A157" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157">
         <v>58053.110098999998</v>
       </c>
-      <c r="C157" s="1">
-        <v>23.068000000000001</v>
-      </c>
-      <c r="D157" s="1">
+      <c r="C157">
+        <v>23.978000000000002</v>
+      </c>
+      <c r="D157">
         <v>0.13900000000000001</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E157" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B158" s="1">
+      <c r="A158" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158">
         <v>58053.113619000003</v>
       </c>
-      <c r="C158" s="1">
-        <v>23.323</v>
-      </c>
-      <c r="D158" s="1">
+      <c r="C158">
+        <v>24.233000000000001</v>
+      </c>
+      <c r="D158">
         <v>0.16700000000000001</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E158" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="1" t="s">
+      <c r="A159" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159">
+        <v>58053.117228000003</v>
+      </c>
+      <c r="C159">
+        <v>23.835000000000001</v>
+      </c>
+      <c r="D159">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E159" t="s">
         <v>3</v>
       </c>
-      <c r="B159" s="1">
-        <v>58053.117228000003</v>
-      </c>
-      <c r="C159" s="1">
-        <v>22.515999999999998</v>
-      </c>
-      <c r="D159" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="E159" s="1" t="s">
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160">
+        <v>58053.121166999998</v>
+      </c>
+      <c r="C160">
+        <v>23.131</v>
+      </c>
+      <c r="D160">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E160" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="1" t="s">
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161">
+        <v>58053.125096999996</v>
+      </c>
+      <c r="C161">
+        <v>23.382000000000001</v>
+      </c>
+      <c r="D161">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="E161" t="s">
         <v>3</v>
       </c>
-      <c r="B160" s="1">
-        <v>58053.121166999998</v>
-      </c>
-      <c r="C160" s="1">
-        <v>21.812999999999999</v>
-      </c>
-      <c r="D160" s="1">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="E160" s="1" t="s">
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162">
+        <v>58053.129055999998</v>
+      </c>
+      <c r="C162">
+        <v>23.059000000000001</v>
+      </c>
+      <c r="D162">
+        <v>0.125</v>
+      </c>
+      <c r="E162" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="1" t="s">
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163">
+        <v>58053.133005999996</v>
+      </c>
+      <c r="C163">
+        <v>22.908999999999999</v>
+      </c>
+      <c r="D163">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="E163" t="s">
         <v>3</v>
       </c>
-      <c r="B161" s="1">
-        <v>58053.125096999996</v>
-      </c>
-      <c r="C161" s="1">
-        <v>22.064</v>
-      </c>
-      <c r="D161" s="1">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="E161" s="1" t="s">
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164">
+        <v>58053.136935000002</v>
+      </c>
+      <c r="C164">
+        <v>22.859000000000002</v>
+      </c>
+      <c r="D164">
+        <v>0.115</v>
+      </c>
+      <c r="E164" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="1" t="s">
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165">
+        <v>58053.140845000002</v>
+      </c>
+      <c r="C165">
+        <v>23.015999999999998</v>
+      </c>
+      <c r="D165">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="E165" t="s">
         <v>3</v>
       </c>
-      <c r="B162" s="1">
-        <v>58053.129055999998</v>
-      </c>
-      <c r="C162" s="1">
-        <v>21.742000000000001</v>
-      </c>
-      <c r="D162" s="1">
-        <v>0.115</v>
-      </c>
-      <c r="E162" s="1" t="s">
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166">
+        <v>58053.144763999997</v>
+      </c>
+      <c r="C166">
+        <v>22.738</v>
+      </c>
+      <c r="D166">
+        <v>0.129</v>
+      </c>
+      <c r="E166" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="1" t="s">
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167">
+        <v>58053.148284000003</v>
+      </c>
+      <c r="C167">
+        <v>22.99</v>
+      </c>
+      <c r="D167">
+        <v>0.16</v>
+      </c>
+      <c r="E167" t="s">
         <v>3</v>
       </c>
-      <c r="B163" s="1">
-        <v>58053.133005999996</v>
-      </c>
-      <c r="C163" s="1">
-        <v>21.593</v>
-      </c>
-      <c r="D163" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B164" s="1">
-        <v>58053.136935000002</v>
-      </c>
-      <c r="C164" s="1">
-        <v>21.544</v>
-      </c>
-      <c r="D164" s="1">
-        <v>0.104</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B165" s="1">
-        <v>58053.140845000002</v>
-      </c>
-      <c r="C165" s="1">
-        <v>21.701000000000001</v>
-      </c>
-      <c r="D165" s="1">
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168">
+        <v>58053.151942999997</v>
+      </c>
+      <c r="C168">
+        <v>22.940999999999999</v>
+      </c>
+      <c r="D168">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169">
+        <v>58053.155532999997</v>
+      </c>
+      <c r="C169">
+        <v>22.856000000000002</v>
+      </c>
+      <c r="D169">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>9</v>
+      </c>
+      <c r="B170">
+        <v>58053.158790000001</v>
+      </c>
+      <c r="C170">
+        <v>21.067</v>
+      </c>
+      <c r="D170">
+        <v>0.28320000000000001</v>
+      </c>
+      <c r="E170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171">
+        <v>58053.176319999999</v>
+      </c>
+      <c r="C171">
+        <v>21.100999999999999</v>
+      </c>
+      <c r="D171">
+        <v>0.29549999999999998</v>
+      </c>
+      <c r="E171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172">
+        <v>58053.186569999998</v>
+      </c>
+      <c r="C172">
+        <v>21.841999999999999</v>
+      </c>
+      <c r="D172">
+        <v>0.36859999999999998</v>
+      </c>
+      <c r="E172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173">
+        <v>58053.188190000001</v>
+      </c>
+      <c r="C173">
+        <v>21.417000000000002</v>
+      </c>
+      <c r="D173">
+        <v>0.37080000000000002</v>
+      </c>
+      <c r="E173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174">
+        <v>58053.19053</v>
+      </c>
+      <c r="C174">
+        <v>21.481999999999999</v>
+      </c>
+      <c r="D174">
+        <v>0.34920000000000001</v>
+      </c>
+      <c r="E174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>9</v>
+      </c>
+      <c r="B175">
+        <v>58053.196929999998</v>
+      </c>
+      <c r="C175">
+        <v>21.652999999999999</v>
+      </c>
+      <c r="D175">
+        <v>0.433</v>
+      </c>
+      <c r="E175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176">
+        <v>58053.197699999997</v>
+      </c>
+      <c r="C176">
+        <v>21.489000000000001</v>
+      </c>
+      <c r="D176">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="E176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>9</v>
+      </c>
+      <c r="B177">
+        <v>58053.200069999999</v>
+      </c>
+      <c r="C177">
+        <v>21.611000000000001</v>
+      </c>
+      <c r="D177">
+        <v>0.41089999999999999</v>
+      </c>
+      <c r="E177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>9</v>
+      </c>
+      <c r="B178">
+        <v>58053.204030000001</v>
+      </c>
+      <c r="C178">
+        <v>21.86</v>
+      </c>
+      <c r="D178">
+        <v>0.5323</v>
+      </c>
+      <c r="E178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179">
+        <v>58053.220474000002</v>
+      </c>
+      <c r="C179">
+        <v>24.44</v>
+      </c>
+      <c r="D179">
+        <v>0.26</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180">
+        <v>58053.224043000002</v>
+      </c>
+      <c r="C180">
+        <v>24.803999999999998</v>
+      </c>
+      <c r="D180">
+        <v>0.34</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181">
+        <v>58053.235522000003</v>
+      </c>
+      <c r="C181">
+        <v>25.431999999999999</v>
+      </c>
+      <c r="D181">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="E181" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182">
+        <v>58053.236812000003</v>
+      </c>
+      <c r="C182">
+        <v>24.922999999999998</v>
+      </c>
+      <c r="D182">
+        <v>0.372</v>
+      </c>
+      <c r="E182" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183">
+        <v>58053.238101000003</v>
+      </c>
+      <c r="C183">
+        <v>25.715</v>
+      </c>
+      <c r="D183">
+        <v>0.76</v>
+      </c>
+      <c r="E183" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184">
+        <v>58053.239391000003</v>
+      </c>
+      <c r="C184">
+        <v>24.370999999999999</v>
+      </c>
+      <c r="D184">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="E184" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185">
+        <v>58053.240681000003</v>
+      </c>
+      <c r="C185">
+        <v>24.526</v>
+      </c>
+      <c r="D185">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="E185" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>8</v>
+      </c>
+      <c r="B186">
+        <v>58053.241971000003</v>
+      </c>
+      <c r="C186">
+        <v>24.37</v>
+      </c>
+      <c r="D186">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="E186" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187">
+        <v>58053.243270999999</v>
+      </c>
+      <c r="C187">
+        <v>25.251999999999999</v>
+      </c>
+      <c r="D187">
+        <v>0.495</v>
+      </c>
+      <c r="E187" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188">
+        <v>58053.244561</v>
+      </c>
+      <c r="C188">
+        <v>24.332000000000001</v>
+      </c>
+      <c r="D188">
+        <v>0.216</v>
+      </c>
+      <c r="E188" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189">
+        <v>58053.245849999999</v>
+      </c>
+      <c r="C189">
+        <v>24.155999999999999</v>
+      </c>
+      <c r="D189">
+        <v>0.187</v>
+      </c>
+      <c r="E189" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>8</v>
+      </c>
+      <c r="B190">
+        <v>58053.247139999999</v>
+      </c>
+      <c r="C190">
+        <v>24.558</v>
+      </c>
+      <c r="D190">
+        <v>0.26</v>
+      </c>
+      <c r="E190" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191">
+        <v>58053.24843</v>
+      </c>
+      <c r="C191">
+        <v>24.66</v>
+      </c>
+      <c r="D191">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="E191" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192">
+        <v>58053.24972</v>
+      </c>
+      <c r="C192">
+        <v>24.510999999999999</v>
+      </c>
+      <c r="D192">
+        <v>0.254</v>
+      </c>
+      <c r="E192" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193">
+        <v>58053.25101</v>
+      </c>
+      <c r="C193">
+        <v>24.443999999999999</v>
+      </c>
+      <c r="D193">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="E193" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194">
+        <v>58053.252299</v>
+      </c>
+      <c r="C194">
+        <v>24.404</v>
+      </c>
+      <c r="D194">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="E194" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>8</v>
+      </c>
+      <c r="B195">
+        <v>58053.253589</v>
+      </c>
+      <c r="C195">
+        <v>23.887</v>
+      </c>
+      <c r="D195">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="E195" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>8</v>
+      </c>
+      <c r="B196">
+        <v>58053.254879</v>
+      </c>
+      <c r="C196">
+        <v>24.231999999999999</v>
+      </c>
+      <c r="D196">
+        <v>0.2</v>
+      </c>
+      <c r="E196" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>8</v>
+      </c>
+      <c r="B197">
+        <v>58053.256169</v>
+      </c>
+      <c r="C197">
+        <v>24.143999999999998</v>
+      </c>
+      <c r="D197">
+        <v>0.187</v>
+      </c>
+      <c r="E197" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>8</v>
+      </c>
+      <c r="B198">
+        <v>58053.257459</v>
+      </c>
+      <c r="C198">
+        <v>24.111999999999998</v>
+      </c>
+      <c r="D198">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E198" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>8</v>
+      </c>
+      <c r="B199">
+        <v>58053.258749000001</v>
+      </c>
+      <c r="C199">
+        <v>23.643999999999998</v>
+      </c>
+      <c r="D199">
         <v>0.122</v>
       </c>
-      <c r="E165" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B166" s="1">
-        <v>58053.144763999997</v>
-      </c>
-      <c r="C166" s="1">
-        <v>21.423999999999999</v>
-      </c>
-      <c r="D166" s="1">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B167" s="1">
-        <v>58053.148284000003</v>
-      </c>
-      <c r="C167" s="1">
-        <v>21.677</v>
-      </c>
-      <c r="D167" s="1">
-        <v>0.152</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B168" s="1">
-        <v>58053.151942999997</v>
-      </c>
-      <c r="C168" s="1">
-        <v>22.039000000000001</v>
-      </c>
-      <c r="D168" s="1">
+      <c r="E199" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200">
+        <v>58053.260038</v>
+      </c>
+      <c r="C200">
+        <v>23.850999999999999</v>
+      </c>
+      <c r="D200">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E200" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201">
+        <v>58053.261478</v>
+      </c>
+      <c r="C201">
+        <v>23.654</v>
+      </c>
+      <c r="D201">
+        <v>0.125</v>
+      </c>
+      <c r="E201" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202">
+        <v>58053.268987000003</v>
+      </c>
+      <c r="C202">
+        <v>23.948</v>
+      </c>
+      <c r="D202">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E202" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203">
+        <v>58053.270917000002</v>
+      </c>
+      <c r="C203">
+        <v>23.733000000000001</v>
+      </c>
+      <c r="D203">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="E203" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>8</v>
+      </c>
+      <c r="B204">
+        <v>58053.272207000002</v>
+      </c>
+      <c r="C204">
+        <v>23.518999999999998</v>
+      </c>
+      <c r="D204">
+        <v>0.112</v>
+      </c>
+      <c r="E204" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>8</v>
+      </c>
+      <c r="B205">
+        <v>58053.273497000002</v>
+      </c>
+      <c r="C205">
+        <v>23.523</v>
+      </c>
+      <c r="D205">
+        <v>0.112</v>
+      </c>
+      <c r="E205" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>8</v>
+      </c>
+      <c r="B206">
+        <v>58053.274786000002</v>
+      </c>
+      <c r="C206">
+        <v>23.417999999999999</v>
+      </c>
+      <c r="D206">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E206" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207">
+        <v>58053.276076000002</v>
+      </c>
+      <c r="C207">
+        <v>23.308</v>
+      </c>
+      <c r="D207">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="E207" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>8</v>
+      </c>
+      <c r="B208">
+        <v>58053.277366000002</v>
+      </c>
+      <c r="C208">
+        <v>23.175999999999998</v>
+      </c>
+      <c r="D208">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E208" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>8</v>
+      </c>
+      <c r="B209">
+        <v>58053.278656000002</v>
+      </c>
+      <c r="C209">
+        <v>23.198</v>
+      </c>
+      <c r="D209">
+        <v>0.09</v>
+      </c>
+      <c r="E209" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210">
+        <v>58053.279955999998</v>
+      </c>
+      <c r="C210">
+        <v>23.224</v>
+      </c>
+      <c r="D210">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E210" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>8</v>
+      </c>
+      <c r="B211">
+        <v>58053.281244999998</v>
+      </c>
+      <c r="C211">
+        <v>23.021999999999998</v>
+      </c>
+      <c r="D211">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E211" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212">
+        <v>58053.282534999998</v>
+      </c>
+      <c r="C212">
+        <v>23.053000000000001</v>
+      </c>
+      <c r="D212">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E212" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>8</v>
+      </c>
+      <c r="B213">
+        <v>58053.283824999999</v>
+      </c>
+      <c r="C213">
+        <v>22.928000000000001</v>
+      </c>
+      <c r="D213">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E213" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>8</v>
+      </c>
+      <c r="B214">
+        <v>58053.285114999999</v>
+      </c>
+      <c r="C214">
+        <v>22.940999999999999</v>
+      </c>
+      <c r="D214">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E214" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>8</v>
+      </c>
+      <c r="B215">
+        <v>58053.286404999999</v>
+      </c>
+      <c r="C215">
+        <v>22.905000000000001</v>
+      </c>
+      <c r="D215">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E215" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>8</v>
+      </c>
+      <c r="B216">
+        <v>58053.288824000003</v>
+      </c>
+      <c r="C216">
+        <v>22.742000000000001</v>
+      </c>
+      <c r="D216">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E216" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>8</v>
+      </c>
+      <c r="B217">
+        <v>58053.291394</v>
+      </c>
+      <c r="C217">
+        <v>22.808</v>
+      </c>
+      <c r="D217">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E217" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>8</v>
+      </c>
+      <c r="B218">
+        <v>58053.293954000001</v>
+      </c>
+      <c r="C218">
+        <v>22.835999999999999</v>
+      </c>
+      <c r="D218">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E218" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>8</v>
+      </c>
+      <c r="B219">
+        <v>58053.296522999997</v>
+      </c>
+      <c r="C219">
+        <v>22.774000000000001</v>
+      </c>
+      <c r="D219">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E219" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>8</v>
+      </c>
+      <c r="B220">
+        <v>58053.299082999998</v>
+      </c>
+      <c r="C220">
+        <v>22.780999999999999</v>
+      </c>
+      <c r="D220">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E220" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>8</v>
+      </c>
+      <c r="B221">
+        <v>58053.301642999999</v>
+      </c>
+      <c r="C221">
+        <v>22.805</v>
+      </c>
+      <c r="D221">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E221" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>8</v>
+      </c>
+      <c r="B222">
+        <v>58053.304212000003</v>
+      </c>
+      <c r="C222">
+        <v>22.751000000000001</v>
+      </c>
+      <c r="D222">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E222" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>8</v>
+      </c>
+      <c r="B223">
+        <v>58053.306772000004</v>
+      </c>
+      <c r="C223">
+        <v>22.779</v>
+      </c>
+      <c r="D223">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E223" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>8</v>
+      </c>
+      <c r="B224">
+        <v>58053.309331999997</v>
+      </c>
+      <c r="C224">
+        <v>22.824000000000002</v>
+      </c>
+      <c r="D224">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E224" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>8</v>
+      </c>
+      <c r="B225">
+        <v>58053.311901000001</v>
+      </c>
+      <c r="C225">
+        <v>22.818999999999999</v>
+      </c>
+      <c r="D225">
+        <v>0.06</v>
+      </c>
+      <c r="E225" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>8</v>
+      </c>
+      <c r="B226">
+        <v>58053.314461000002</v>
+      </c>
+      <c r="C226">
+        <v>22.673999999999999</v>
+      </c>
+      <c r="D226">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E226" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>10</v>
+      </c>
+      <c r="B227">
+        <v>58053.316330000001</v>
+      </c>
+      <c r="C227">
+        <v>22.114999999999998</v>
+      </c>
+      <c r="D227">
+        <v>0.10829999999999999</v>
+      </c>
+      <c r="E227" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>8</v>
+      </c>
+      <c r="B228">
+        <v>58053.317021000003</v>
+      </c>
+      <c r="C228">
+        <v>22.766999999999999</v>
+      </c>
+      <c r="D228">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E228" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>8</v>
+      </c>
+      <c r="B229">
+        <v>58053.319589999999</v>
+      </c>
+      <c r="C229">
+        <v>22.84</v>
+      </c>
+      <c r="D229">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E229" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>8</v>
+      </c>
+      <c r="B230">
+        <v>58053.32215</v>
+      </c>
+      <c r="C230">
+        <v>22.84</v>
+      </c>
+      <c r="D230">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E230" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>8</v>
+      </c>
+      <c r="B231">
+        <v>58053.324710000001</v>
+      </c>
+      <c r="C231">
+        <v>22.937000000000001</v>
+      </c>
+      <c r="D231">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E231" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>8</v>
+      </c>
+      <c r="B232">
+        <v>58053.327298999997</v>
+      </c>
+      <c r="C232">
+        <v>22.837</v>
+      </c>
+      <c r="D232">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E232" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>8</v>
+      </c>
+      <c r="B233">
+        <v>58053.329869000001</v>
+      </c>
+      <c r="C233">
+        <v>22.991</v>
+      </c>
+      <c r="D233">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E233" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>8</v>
+      </c>
+      <c r="B234">
+        <v>58053.332428000002</v>
+      </c>
+      <c r="C234">
+        <v>23.015999999999998</v>
+      </c>
+      <c r="D234">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E234" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>8</v>
+      </c>
+      <c r="B235">
+        <v>58053.334988000002</v>
+      </c>
+      <c r="C235">
+        <v>23.117000000000001</v>
+      </c>
+      <c r="D235">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E235" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>8</v>
+      </c>
+      <c r="B236">
+        <v>58053.337557999999</v>
+      </c>
+      <c r="C236">
+        <v>23.091999999999999</v>
+      </c>
+      <c r="D236">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E236" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>8</v>
+      </c>
+      <c r="B237">
+        <v>58053.340117</v>
+      </c>
+      <c r="C237">
+        <v>23.225000000000001</v>
+      </c>
+      <c r="D237">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E237" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>8</v>
+      </c>
+      <c r="B238">
+        <v>58053.342677000001</v>
+      </c>
+      <c r="C238">
+        <v>23.175000000000001</v>
+      </c>
+      <c r="D238">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B169" s="1">
-        <v>58053.155532999997</v>
-      </c>
-      <c r="C169" s="1">
-        <v>21.954000000000001</v>
-      </c>
-      <c r="D169" s="1">
+      <c r="E238" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>8</v>
+      </c>
+      <c r="B239">
+        <v>58053.345246999997</v>
+      </c>
+      <c r="C239">
+        <v>23.192</v>
+      </c>
+      <c r="D239">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E239" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>8</v>
+      </c>
+      <c r="B240">
+        <v>58053.347805999998</v>
+      </c>
+      <c r="C240">
+        <v>23.138999999999999</v>
+      </c>
+      <c r="D240">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E240" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>8</v>
+      </c>
+      <c r="B241">
+        <v>58053.350376000002</v>
+      </c>
+      <c r="C241">
+        <v>23.516999999999999</v>
+      </c>
+      <c r="D241">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E241" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>8</v>
+      </c>
+      <c r="B242">
+        <v>58053.352936000003</v>
+      </c>
+      <c r="C242">
+        <v>23.515000000000001</v>
+      </c>
+      <c r="D242">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E242" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>8</v>
+      </c>
+      <c r="B243">
+        <v>58053.355495000003</v>
+      </c>
+      <c r="C243">
+        <v>23.49</v>
+      </c>
+      <c r="D243">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E243" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>8</v>
+      </c>
+      <c r="B244">
+        <v>58053.358195000001</v>
+      </c>
+      <c r="C244">
+        <v>23.581</v>
+      </c>
+      <c r="D244">
+        <v>0.08</v>
+      </c>
+      <c r="E244" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>8</v>
+      </c>
+      <c r="B245">
+        <v>58053.360755000002</v>
+      </c>
+      <c r="C245">
+        <v>23.62</v>
+      </c>
+      <c r="D245">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E245" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>8</v>
+      </c>
+      <c r="B246">
+        <v>58053.363323999998</v>
+      </c>
+      <c r="C246">
+        <v>23.815999999999999</v>
+      </c>
+      <c r="D246">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E246" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>8</v>
+      </c>
+      <c r="B247">
+        <v>58053.365883999999</v>
+      </c>
+      <c r="C247">
+        <v>23.992000000000001</v>
+      </c>
+      <c r="D247">
+        <v>0.106</v>
+      </c>
+      <c r="E247" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>8</v>
+      </c>
+      <c r="B248">
+        <v>58053.368652999998</v>
+      </c>
+      <c r="C248">
+        <v>24.283000000000001</v>
+      </c>
+      <c r="D248">
+        <v>0.128</v>
+      </c>
+      <c r="E248" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>8</v>
+      </c>
+      <c r="B249">
+        <v>58053.371212999999</v>
+      </c>
+      <c r="C249">
+        <v>24.387</v>
+      </c>
+      <c r="D249">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="E249" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>8</v>
+      </c>
+      <c r="B250">
+        <v>58053.373783000003</v>
+      </c>
+      <c r="C250">
+        <v>24.466999999999999</v>
+      </c>
+      <c r="D250">
+        <v>0.159</v>
+      </c>
+      <c r="E250" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>8</v>
+      </c>
+      <c r="B251">
+        <v>58053.376342000003</v>
+      </c>
+      <c r="C251">
+        <v>24.591999999999999</v>
+      </c>
+      <c r="D251">
+        <v>0.17</v>
+      </c>
+      <c r="E251" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>8</v>
+      </c>
+      <c r="B252">
+        <v>58053.378901999997</v>
+      </c>
+      <c r="C252">
+        <v>24.643999999999998</v>
+      </c>
+      <c r="D252">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="E252" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>8</v>
+      </c>
+      <c r="B253">
+        <v>58053.381472000001</v>
+      </c>
+      <c r="C253">
+        <v>25.370999999999999</v>
+      </c>
+      <c r="D253">
+        <v>0.34</v>
+      </c>
+      <c r="E253" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>8</v>
+      </c>
+      <c r="B254">
+        <v>58053.384031000001</v>
+      </c>
+      <c r="C254">
+        <v>25.053000000000001</v>
+      </c>
+      <c r="D254">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="E254" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>8</v>
+      </c>
+      <c r="B255">
+        <v>58053.386591000002</v>
+      </c>
+      <c r="C255">
+        <v>25.254000000000001</v>
+      </c>
+      <c r="D255">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="E255" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>8</v>
+      </c>
+      <c r="B256">
+        <v>58053.389171000003</v>
+      </c>
+      <c r="C256">
+        <v>24.219000000000001</v>
+      </c>
+      <c r="D256">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="E256" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>8</v>
+      </c>
+      <c r="B257">
+        <v>58053.396999999997</v>
+      </c>
+      <c r="C257">
+        <v>24.102</v>
+      </c>
+      <c r="D257">
+        <v>0.114</v>
+      </c>
+      <c r="E257" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>10</v>
+      </c>
+      <c r="B258">
+        <v>58053.398759999996</v>
+      </c>
+      <c r="C258">
+        <v>23.556000000000001</v>
+      </c>
+      <c r="D258">
+        <v>0.2167</v>
+      </c>
+      <c r="E258" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>8</v>
+      </c>
+      <c r="B259">
+        <v>58053.399558999998</v>
+      </c>
+      <c r="C259">
+        <v>24.297000000000001</v>
+      </c>
+      <c r="D259">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E259" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>8</v>
+      </c>
+      <c r="B260">
+        <v>58053.402129000002</v>
+      </c>
+      <c r="C260">
+        <v>24.367000000000001</v>
+      </c>
+      <c r="D260">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E260" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>8</v>
+      </c>
+      <c r="B261">
+        <v>58053.404689000003</v>
+      </c>
+      <c r="C261">
+        <v>24.234999999999999</v>
+      </c>
+      <c r="D261">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="E261" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>8</v>
+      </c>
+      <c r="B262">
+        <v>58053.407248000003</v>
+      </c>
+      <c r="C262">
+        <v>24.096</v>
+      </c>
+      <c r="D262">
+        <v>0.107</v>
+      </c>
+      <c r="E262" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>10</v>
+      </c>
+      <c r="B263">
+        <v>58053.407919999998</v>
+      </c>
+      <c r="C263">
+        <v>23.042999999999999</v>
+      </c>
+      <c r="D263">
+        <v>0.32350000000000001</v>
+      </c>
+      <c r="E263" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>8</v>
+      </c>
+      <c r="B264">
+        <v>58053.409818</v>
+      </c>
+      <c r="C264">
+        <v>23.998000000000001</v>
+      </c>
+      <c r="D264">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E264" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>8</v>
+      </c>
+      <c r="B265">
+        <v>58053.412377000001</v>
+      </c>
+      <c r="C265">
+        <v>23.867999999999999</v>
+      </c>
+      <c r="D265">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E265" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>8</v>
+      </c>
+      <c r="B266">
+        <v>58053.414937000001</v>
+      </c>
+      <c r="C266">
+        <v>23.952999999999999</v>
+      </c>
+      <c r="D266">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E266" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>10</v>
+      </c>
+      <c r="B267">
+        <v>58053.416380000002</v>
+      </c>
+      <c r="C267">
+        <v>22.798999999999999</v>
+      </c>
+      <c r="D267">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="E267" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>8</v>
+      </c>
+      <c r="B268">
+        <v>58053.417627000003</v>
+      </c>
+      <c r="C268">
+        <v>23.69</v>
+      </c>
+      <c r="D268">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E268" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>8</v>
+      </c>
+      <c r="B269">
+        <v>58053.420186000003</v>
+      </c>
+      <c r="C269">
+        <v>23.346</v>
+      </c>
+      <c r="D269">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E269" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>8</v>
+      </c>
+      <c r="B270">
+        <v>58053.422745999997</v>
+      </c>
+      <c r="C270">
+        <v>23.326000000000001</v>
+      </c>
+      <c r="D270">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E270" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>10</v>
+      </c>
+      <c r="B271">
+        <v>58053.423710000003</v>
+      </c>
+      <c r="C271">
+        <v>22.311</v>
+      </c>
+      <c r="D271">
+        <v>0.1384</v>
+      </c>
+      <c r="E271" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>8</v>
+      </c>
+      <c r="B272">
+        <v>58053.425346000004</v>
+      </c>
+      <c r="C272">
+        <v>23.097999999999999</v>
+      </c>
+      <c r="D272">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E272" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
+        <v>8</v>
+      </c>
+      <c r="B273">
+        <v>58053.427915</v>
+      </c>
+      <c r="C273">
+        <v>23.097999999999999</v>
+      </c>
+      <c r="D273">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E273" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>8</v>
+      </c>
+      <c r="B274">
+        <v>58053.430475000001</v>
+      </c>
+      <c r="C274">
+        <v>23.108000000000001</v>
+      </c>
+      <c r="D274">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E274" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
+        <v>10</v>
+      </c>
+      <c r="B275">
+        <v>58053.43174</v>
+      </c>
+      <c r="C275">
+        <v>22.178999999999998</v>
+      </c>
+      <c r="D275">
+        <v>0.1174</v>
+      </c>
+      <c r="E275" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" t="s">
+        <v>8</v>
+      </c>
+      <c r="B276">
+        <v>58053.433044999998</v>
+      </c>
+      <c r="C276">
+        <v>23.167000000000002</v>
+      </c>
+      <c r="D276">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E276" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" t="s">
+        <v>8</v>
+      </c>
+      <c r="B277">
+        <v>58053.435603999998</v>
+      </c>
+      <c r="C277">
+        <v>23.035</v>
+      </c>
+      <c r="D277">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E277" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" t="s">
+        <v>8</v>
+      </c>
+      <c r="B278">
+        <v>58053.438163999999</v>
+      </c>
+      <c r="C278">
+        <v>23.006</v>
+      </c>
+      <c r="D278">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E278" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" t="s">
+        <v>10</v>
+      </c>
+      <c r="B279">
+        <v>58053.439350000001</v>
+      </c>
+      <c r="C279">
+        <v>22.103000000000002</v>
+      </c>
+      <c r="D279">
+        <v>0.13539999999999999</v>
+      </c>
+      <c r="E279" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" t="s">
+        <v>8</v>
+      </c>
+      <c r="B280">
+        <v>58053.443303</v>
+      </c>
+      <c r="C280">
+        <v>22.760999999999999</v>
+      </c>
+      <c r="D280">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E280" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" t="s">
+        <v>8</v>
+      </c>
+      <c r="B281">
+        <v>58053.445863000001</v>
+      </c>
+      <c r="C281">
+        <v>22.629000000000001</v>
+      </c>
+      <c r="D281">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E281" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" t="s">
+        <v>10</v>
+      </c>
+      <c r="B282">
+        <v>58053.447659999998</v>
+      </c>
+      <c r="C282">
+        <v>21.704999999999998</v>
+      </c>
+      <c r="D282">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="E282" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" t="s">
+        <v>8</v>
+      </c>
+      <c r="B283">
+        <v>58053.448562999998</v>
+      </c>
+      <c r="C283">
+        <v>22.538</v>
+      </c>
+      <c r="D283">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E283" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" t="s">
+        <v>8</v>
+      </c>
+      <c r="B284">
+        <v>58053.451172000001</v>
+      </c>
+      <c r="C284">
+        <v>22.446000000000002</v>
+      </c>
+      <c r="D284">
         <v>5.5E-2</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B170" s="1">
-        <v>58053.220474000002</v>
-      </c>
-      <c r="C170" s="1">
-        <v>23.550999999999998</v>
-      </c>
-      <c r="D170" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B171" s="1">
-        <v>58053.224043000002</v>
-      </c>
-      <c r="C171" s="1">
-        <v>23.916</v>
-      </c>
-      <c r="D171" s="1">
-        <v>0.34</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B172" s="1">
-        <v>58053.235522000003</v>
-      </c>
-      <c r="C172" s="1">
-        <v>24.739000000000001</v>
-      </c>
-      <c r="D172" s="1">
-        <v>0.59</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B173" s="1">
-        <v>58053.236812000003</v>
-      </c>
-      <c r="C173" s="1">
-        <v>24.23</v>
-      </c>
-      <c r="D173" s="1">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B174" s="1">
-        <v>58053.238101000003</v>
-      </c>
-      <c r="C174" s="1">
-        <v>25.023</v>
-      </c>
-      <c r="D174" s="1">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B175" s="1">
-        <v>58053.239391000003</v>
-      </c>
-      <c r="C175" s="1">
-        <v>23.678999999999998</v>
-      </c>
-      <c r="D175" s="1">
-        <v>0.221</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B176" s="1">
-        <v>58053.240681000003</v>
-      </c>
-      <c r="C176" s="1">
-        <v>23.834</v>
-      </c>
-      <c r="D176" s="1">
-        <v>0.253</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B177" s="1">
-        <v>58053.241971000003</v>
-      </c>
-      <c r="C177" s="1">
-        <v>23.678000000000001</v>
-      </c>
-      <c r="D177" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B178" s="1">
-        <v>58053.243270999999</v>
-      </c>
-      <c r="C178" s="1">
-        <v>24.561</v>
-      </c>
-      <c r="D178" s="1">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B179" s="1">
-        <v>58053.244561</v>
-      </c>
-      <c r="C179" s="1">
-        <v>23.640999999999998</v>
-      </c>
-      <c r="D179" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B180" s="1">
-        <v>58053.245849999999</v>
-      </c>
-      <c r="C180" s="1">
-        <v>23.465</v>
-      </c>
-      <c r="D180" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B181" s="1">
-        <v>58053.247139999999</v>
-      </c>
-      <c r="C181" s="1">
-        <v>23.867000000000001</v>
-      </c>
-      <c r="D181" s="1">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B182" s="1">
-        <v>58053.24843</v>
-      </c>
-      <c r="C182" s="1">
-        <v>23.97</v>
-      </c>
-      <c r="D182" s="1">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B183" s="1">
-        <v>58053.24972</v>
-      </c>
-      <c r="C183" s="1">
-        <v>23.821000000000002</v>
-      </c>
-      <c r="D183" s="1">
-        <v>0.249</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B184" s="1">
-        <v>58053.25101</v>
-      </c>
-      <c r="C184" s="1">
-        <v>23.754000000000001</v>
-      </c>
-      <c r="D184" s="1">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B185" s="1">
-        <v>58053.252299</v>
-      </c>
-      <c r="C185" s="1">
-        <v>23.713999999999999</v>
-      </c>
-      <c r="D185" s="1">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B186" s="1">
-        <v>58053.253589</v>
-      </c>
-      <c r="C186" s="1">
-        <v>23.198</v>
-      </c>
-      <c r="D186" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B187" s="1">
-        <v>58053.254879</v>
-      </c>
-      <c r="C187" s="1">
-        <v>23.542999999999999</v>
-      </c>
-      <c r="D187" s="1">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B188" s="1">
-        <v>58053.256169</v>
-      </c>
-      <c r="C188" s="1">
-        <v>23.454999999999998</v>
-      </c>
-      <c r="D188" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B189" s="1">
-        <v>58053.257459</v>
-      </c>
-      <c r="C189" s="1">
-        <v>23.422999999999998</v>
-      </c>
-      <c r="D189" s="1">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B190" s="1">
-        <v>58053.258749000001</v>
-      </c>
-      <c r="C190" s="1">
-        <v>22.956</v>
-      </c>
-      <c r="D190" s="1">
-        <v>0.111</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B191" s="1">
-        <v>58053.260038</v>
-      </c>
-      <c r="C191" s="1">
-        <v>23.163</v>
-      </c>
-      <c r="D191" s="1">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B192" s="1">
-        <v>58053.261478</v>
-      </c>
-      <c r="C192" s="1">
-        <v>22.966000000000001</v>
-      </c>
-      <c r="D192" s="1">
-        <v>0.115</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B193" s="1">
-        <v>58053.268987000003</v>
-      </c>
-      <c r="C193" s="1">
-        <v>23.262</v>
-      </c>
-      <c r="D193" s="1">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B194" s="1">
-        <v>58053.270917000002</v>
-      </c>
-      <c r="C194" s="1">
-        <v>23.047000000000001</v>
-      </c>
-      <c r="D194" s="1">
-        <v>0.122</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B195" s="1">
-        <v>58053.272207000002</v>
-      </c>
-      <c r="C195" s="1">
-        <v>22.832999999999998</v>
-      </c>
-      <c r="D195" s="1">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B196" s="1">
-        <v>58053.273497000002</v>
-      </c>
-      <c r="C196" s="1">
-        <v>22.838000000000001</v>
-      </c>
-      <c r="D196" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B197" s="1">
-        <v>58053.274786000002</v>
-      </c>
-      <c r="C197" s="1">
-        <v>22.733000000000001</v>
-      </c>
-      <c r="D197" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B198" s="1">
-        <v>58053.276076000002</v>
-      </c>
-      <c r="C198" s="1">
-        <v>22.623000000000001</v>
-      </c>
-      <c r="D198" s="1">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B199" s="1">
-        <v>58053.277366000002</v>
-      </c>
-      <c r="C199" s="1">
-        <v>22.491</v>
-      </c>
-      <c r="D199" s="1">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B200" s="1">
-        <v>58053.278656000002</v>
-      </c>
-      <c r="C200" s="1">
-        <v>22.513999999999999</v>
-      </c>
-      <c r="D200" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B201" s="1">
-        <v>58053.279955999998</v>
-      </c>
-      <c r="C201" s="1">
-        <v>22.54</v>
-      </c>
-      <c r="D201" s="1">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B202" s="1">
-        <v>58053.281244999998</v>
-      </c>
-      <c r="C202" s="1">
-        <v>22.338000000000001</v>
-      </c>
-      <c r="D202" s="1">
-        <v>6.3E-2</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B203" s="1">
-        <v>58053.282534999998</v>
-      </c>
-      <c r="C203" s="1">
-        <v>22.369</v>
-      </c>
-      <c r="D203" s="1">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B204" s="1">
-        <v>58053.283824999999</v>
-      </c>
-      <c r="C204" s="1">
-        <v>22.245000000000001</v>
-      </c>
-      <c r="D204" s="1">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B205" s="1">
-        <v>58053.285114999999</v>
-      </c>
-      <c r="C205" s="1">
-        <v>22.257999999999999</v>
-      </c>
-      <c r="D205" s="1">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B206" s="1">
-        <v>58053.286404999999</v>
-      </c>
-      <c r="C206" s="1">
-        <v>22.222000000000001</v>
-      </c>
-      <c r="D206" s="1">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B207" s="1">
-        <v>58053.288824000003</v>
-      </c>
-      <c r="C207" s="1">
-        <v>22.059000000000001</v>
-      </c>
-      <c r="D207" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B208" s="1">
-        <v>58053.291394</v>
-      </c>
-      <c r="C208" s="1">
-        <v>22.126000000000001</v>
-      </c>
-      <c r="D208" s="1">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B209" s="1">
-        <v>58053.293954000001</v>
-      </c>
-      <c r="C209" s="1">
-        <v>22.154</v>
-      </c>
-      <c r="D209" s="1">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B210" s="1">
-        <v>58053.296522999997</v>
-      </c>
-      <c r="C210" s="1">
-        <v>22.093</v>
-      </c>
-      <c r="D210" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B211" s="1">
-        <v>58053.299082999998</v>
-      </c>
-      <c r="C211" s="1">
-        <v>22.1</v>
-      </c>
-      <c r="D211" s="1">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B212" s="1">
-        <v>58053.301642999999</v>
-      </c>
-      <c r="C212" s="1">
-        <v>22.125</v>
-      </c>
-      <c r="D212" s="1">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B213" s="1">
-        <v>58053.304212000003</v>
-      </c>
-      <c r="C213" s="1">
-        <v>22.071000000000002</v>
-      </c>
-      <c r="D213" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B214" s="1">
-        <v>58053.306772000004</v>
-      </c>
-      <c r="C214" s="1">
-        <v>22.1</v>
-      </c>
-      <c r="D214" s="1">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B215" s="1">
-        <v>58053.309331999997</v>
-      </c>
-      <c r="C215" s="1">
-        <v>22.145</v>
-      </c>
-      <c r="D215" s="1">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B216" s="1">
-        <v>58053.311901000001</v>
-      </c>
-      <c r="C216" s="1">
-        <v>22.140999999999998</v>
-      </c>
-      <c r="D216" s="1">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B217" s="1">
-        <v>58053.314461000002</v>
-      </c>
-      <c r="C217" s="1">
-        <v>21.995999999999999</v>
-      </c>
-      <c r="D217" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B218" s="1">
-        <v>58053.317021000003</v>
-      </c>
-      <c r="C218" s="1">
-        <v>22.09</v>
-      </c>
-      <c r="D218" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B219" s="1">
-        <v>58053.319589999999</v>
-      </c>
-      <c r="C219" s="1">
-        <v>22.163</v>
-      </c>
-      <c r="D219" s="1">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B220" s="1">
-        <v>58053.32215</v>
-      </c>
-      <c r="C220" s="1">
-        <v>22.164000000000001</v>
-      </c>
-      <c r="D220" s="1">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B221" s="1">
-        <v>58053.324710000001</v>
-      </c>
-      <c r="C221" s="1">
-        <v>22.260999999999999</v>
-      </c>
-      <c r="D221" s="1">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B222" s="1">
-        <v>58053.327298999997</v>
-      </c>
-      <c r="C222" s="1">
-        <v>22.161999999999999</v>
-      </c>
-      <c r="D222" s="1">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B223" s="1">
-        <v>58053.329869000001</v>
-      </c>
-      <c r="C223" s="1">
-        <v>22.315999999999999</v>
-      </c>
-      <c r="D223" s="1">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B224" s="1">
-        <v>58053.332428000002</v>
-      </c>
-      <c r="C224" s="1">
-        <v>22.341999999999999</v>
-      </c>
-      <c r="D224" s="1">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B225" s="1">
-        <v>58053.334988000002</v>
-      </c>
-      <c r="C225" s="1">
-        <v>22.443000000000001</v>
-      </c>
-      <c r="D225" s="1">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B226" s="1">
-        <v>58053.337557999999</v>
-      </c>
-      <c r="C226" s="1">
-        <v>22.419</v>
-      </c>
-      <c r="D226" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="A227" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B227" s="1">
-        <v>58053.340117</v>
-      </c>
-      <c r="C227" s="1">
-        <v>22.552</v>
-      </c>
-      <c r="D227" s="1">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B228" s="1">
-        <v>58053.342677000001</v>
-      </c>
-      <c r="C228" s="1">
-        <v>22.503</v>
-      </c>
-      <c r="D228" s="1">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B229" s="1">
-        <v>58053.345246999997</v>
-      </c>
-      <c r="C229" s="1">
-        <v>22.52</v>
-      </c>
-      <c r="D229" s="1">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B230" s="1">
-        <v>58053.347805999998</v>
-      </c>
-      <c r="C230" s="1">
-        <v>22.468</v>
-      </c>
-      <c r="D230" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B231" s="1">
-        <v>58053.350376000002</v>
-      </c>
-      <c r="C231" s="1">
-        <v>22.846</v>
-      </c>
-      <c r="D231" s="1">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B232" s="1">
-        <v>58053.352936000003</v>
-      </c>
-      <c r="C232" s="1">
-        <v>22.844999999999999</v>
-      </c>
-      <c r="D232" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="A233" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B233" s="1">
-        <v>58053.355495000003</v>
-      </c>
-      <c r="C233" s="1">
-        <v>22.82</v>
-      </c>
-      <c r="D233" s="1">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B234" s="1">
-        <v>58053.358195000001</v>
-      </c>
-      <c r="C234" s="1">
-        <v>22.911999999999999</v>
-      </c>
-      <c r="D234" s="1">
-        <v>6.3E-2</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="A235" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B235" s="1">
-        <v>58053.360755000002</v>
-      </c>
-      <c r="C235" s="1">
-        <v>22.951000000000001</v>
-      </c>
-      <c r="D235" s="1">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B236" s="1">
-        <v>58053.363323999998</v>
-      </c>
-      <c r="C236" s="1">
-        <v>23.148</v>
-      </c>
-      <c r="D236" s="1">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B237" s="1">
-        <v>58053.365883999999</v>
-      </c>
-      <c r="C237" s="1">
-        <v>23.324000000000002</v>
-      </c>
-      <c r="D237" s="1">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="A238" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B238" s="1">
-        <v>58053.368652999998</v>
-      </c>
-      <c r="C238" s="1">
-        <v>23.616</v>
-      </c>
-      <c r="D238" s="1">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="A239" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B239" s="1">
-        <v>58053.371212999999</v>
-      </c>
-      <c r="C239" s="1">
-        <v>23.72</v>
-      </c>
-      <c r="D239" s="1">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B240" s="1">
-        <v>58053.373783000003</v>
-      </c>
-      <c r="C240" s="1">
-        <v>23.800999999999998</v>
-      </c>
-      <c r="D240" s="1">
-        <v>0.151</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B241" s="1">
-        <v>58053.376342000003</v>
-      </c>
-      <c r="C241" s="1">
-        <v>23.925999999999998</v>
-      </c>
-      <c r="D241" s="1">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
-      <c r="A242" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B242" s="1">
-        <v>58053.378901999997</v>
-      </c>
-      <c r="C242" s="1">
-        <v>23.978999999999999</v>
-      </c>
-      <c r="D242" s="1">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B243" s="1">
-        <v>58053.381472000001</v>
-      </c>
-      <c r="C243" s="1">
-        <v>24.706</v>
-      </c>
-      <c r="D243" s="1">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="A244" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B244" s="1">
-        <v>58053.384031000001</v>
-      </c>
-      <c r="C244" s="1">
-        <v>24.388999999999999</v>
-      </c>
-      <c r="D244" s="1">
-        <v>0.253</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B245" s="1">
-        <v>58053.386591000002</v>
-      </c>
-      <c r="C245" s="1">
-        <v>24.59</v>
-      </c>
-      <c r="D245" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="A246" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B246" s="1">
-        <v>58053.389171000003</v>
-      </c>
-      <c r="C246" s="1">
-        <v>23.556000000000001</v>
-      </c>
-      <c r="D246" s="1">
-        <v>0.124</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B247" s="1">
-        <v>58053.396999999997</v>
-      </c>
-      <c r="C247" s="1">
-        <v>23.44</v>
-      </c>
-      <c r="D247" s="1">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="A248" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B248" s="1">
-        <v>58053.399558999998</v>
-      </c>
-      <c r="C248" s="1">
-        <v>23.635999999999999</v>
-      </c>
-      <c r="D248" s="1">
-        <v>0.127</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="A249" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B249" s="1">
-        <v>58053.402129000002</v>
-      </c>
-      <c r="C249" s="1">
-        <v>23.706</v>
-      </c>
-      <c r="D249" s="1">
-        <v>0.127</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="A250" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B250" s="1">
-        <v>58053.404689000003</v>
-      </c>
-      <c r="C250" s="1">
-        <v>23.574999999999999</v>
-      </c>
-      <c r="D250" s="1">
-        <v>0.106</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="A251" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B251" s="1">
-        <v>58053.407248000003</v>
-      </c>
-      <c r="C251" s="1">
-        <v>23.436</v>
-      </c>
-      <c r="D251" s="1">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="A252" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B252" s="1">
-        <v>58053.409818</v>
-      </c>
-      <c r="C252" s="1">
-        <v>23.338999999999999</v>
-      </c>
-      <c r="D252" s="1">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
-      <c r="A253" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B253" s="1">
-        <v>58053.412377000001</v>
-      </c>
-      <c r="C253" s="1">
-        <v>23.209</v>
-      </c>
-      <c r="D253" s="1">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
-      <c r="A254" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B254" s="1">
-        <v>58053.414937000001</v>
-      </c>
-      <c r="C254" s="1">
-        <v>23.295000000000002</v>
-      </c>
-      <c r="D254" s="1">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="A255" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B255" s="1">
-        <v>58053.417627000003</v>
-      </c>
-      <c r="C255" s="1">
-        <v>23.032</v>
-      </c>
-      <c r="D255" s="1">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="A256" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B256" s="1">
-        <v>58053.420186000003</v>
-      </c>
-      <c r="C256" s="1">
-        <v>22.689</v>
-      </c>
-      <c r="D256" s="1">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
-      <c r="A257" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B257" s="1">
-        <v>58053.422745999997</v>
-      </c>
-      <c r="C257" s="1">
-        <v>22.669</v>
-      </c>
-      <c r="D257" s="1">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="A258" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B258" s="1">
-        <v>58053.425346000004</v>
-      </c>
-      <c r="C258" s="1">
-        <v>22.442</v>
-      </c>
-      <c r="D258" s="1">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B259" s="1">
-        <v>58053.427915</v>
-      </c>
-      <c r="C259" s="1">
-        <v>22.442</v>
-      </c>
-      <c r="D259" s="1">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B260" s="1">
-        <v>58053.430475000001</v>
-      </c>
-      <c r="C260" s="1">
-        <v>22.452999999999999</v>
-      </c>
-      <c r="D260" s="1">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="A261" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B261" s="1">
-        <v>58053.433044999998</v>
-      </c>
-      <c r="C261" s="1">
-        <v>22.512</v>
-      </c>
-      <c r="D261" s="1">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="A262" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B262" s="1">
-        <v>58053.435603999998</v>
-      </c>
-      <c r="C262" s="1">
-        <v>22.38</v>
-      </c>
-      <c r="D262" s="1">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="A263" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B263" s="1">
-        <v>58053.438163999999</v>
-      </c>
-      <c r="C263" s="1">
-        <v>22.352</v>
-      </c>
-      <c r="D263" s="1">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B264" s="1">
-        <v>58053.443303</v>
-      </c>
-      <c r="C264" s="1">
-        <v>22.108000000000001</v>
-      </c>
-      <c r="D264" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="A265" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B265" s="1">
-        <v>58053.445863000001</v>
-      </c>
-      <c r="C265" s="1">
-        <v>21.975999999999999</v>
-      </c>
-      <c r="D265" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="A266" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B266" s="1">
-        <v>58053.448562999998</v>
-      </c>
-      <c r="C266" s="1">
-        <v>21.885999999999999</v>
-      </c>
-      <c r="D266" s="1">
-        <v>2.4E-2</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
-      <c r="A267" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B267" s="1">
-        <v>58053.451172000001</v>
-      </c>
-      <c r="C267" s="1">
-        <v>21.794</v>
-      </c>
-      <c r="D267" s="1">
-        <v>2.3E-2</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="A268" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B268" s="1">
+      <c r="E284" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" t="s">
+        <v>8</v>
+      </c>
+      <c r="B285">
         <v>58053.453772000001</v>
       </c>
-      <c r="C268" s="1">
-        <v>21.843</v>
-      </c>
-      <c r="D268" s="1">
-        <v>2.3E-2</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="A269" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B269" s="1">
+      <c r="C285">
+        <v>22.494</v>
+      </c>
+      <c r="D285">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E285" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" t="s">
+        <v>10</v>
+      </c>
+      <c r="B286">
+        <v>58053.455130000002</v>
+      </c>
+      <c r="C286">
+        <v>21.562000000000001</v>
+      </c>
+      <c r="D286">
+        <v>7.5200000000000003E-2</v>
+      </c>
+      <c r="E286" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" t="s">
+        <v>8</v>
+      </c>
+      <c r="B287">
         <v>58053.456331000001</v>
       </c>
-      <c r="C269" s="1">
-        <v>21.754999999999999</v>
-      </c>
-      <c r="D269" s="1">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
-      <c r="A270" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B270" s="1">
-        <v>58054.093273999999</v>
-      </c>
-      <c r="C270" s="1">
-        <v>22.19</v>
-      </c>
-      <c r="D270" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="A271" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B271" s="1">
-        <v>58054.097274</v>
-      </c>
-      <c r="C271" s="1">
-        <v>22.4</v>
-      </c>
-      <c r="D271" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="A272" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B272" s="1">
-        <v>58054.101173000003</v>
-      </c>
-      <c r="C272" s="1">
-        <v>22.3</v>
-      </c>
-      <c r="D272" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B273" s="1">
-        <v>58054.105072999999</v>
-      </c>
-      <c r="C273" s="1">
-        <v>22.56</v>
-      </c>
-      <c r="D273" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
-      <c r="A274" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B274" s="1">
-        <v>58054.108972000002</v>
-      </c>
-      <c r="C274" s="1">
-        <v>22.6</v>
-      </c>
-      <c r="D274" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="A275" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B275" s="1">
-        <v>58054.112871999998</v>
-      </c>
-      <c r="C275" s="1">
-        <v>23.07</v>
-      </c>
-      <c r="D275" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
-      <c r="A276" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B276" s="1">
-        <v>58054.116771000001</v>
-      </c>
-      <c r="C276" s="1">
-        <v>22.81</v>
-      </c>
-      <c r="D276" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
-      <c r="A277" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B277" s="1">
-        <v>58054.120669999997</v>
-      </c>
-      <c r="C277" s="1">
-        <v>23.43</v>
-      </c>
-      <c r="D277" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
-      <c r="A278" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B278" s="1">
-        <v>58054.144067000001</v>
-      </c>
-      <c r="C278" s="1">
-        <v>23.63</v>
-      </c>
-      <c r="D278" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
-      <c r="A279" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B279" s="1">
-        <v>58054.190961</v>
-      </c>
-      <c r="C279" s="1">
-        <v>22.93</v>
-      </c>
-      <c r="D279" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
-      <c r="A280" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B280" s="1">
-        <v>58054.198759999999</v>
-      </c>
-      <c r="C280" s="1">
-        <v>23.05</v>
-      </c>
-      <c r="D280" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
-      <c r="A281" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B281" s="1">
-        <v>58054.206558999998</v>
-      </c>
-      <c r="C281" s="1">
-        <v>22.46</v>
-      </c>
-      <c r="D281" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
-      <c r="A282" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B282" s="1">
-        <v>58054.210458000001</v>
-      </c>
-      <c r="C282" s="1">
-        <v>22.73</v>
-      </c>
-      <c r="D282" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
-      <c r="A283" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B283" s="1">
-        <v>58054.214357999997</v>
-      </c>
-      <c r="C283" s="1">
-        <v>22.11</v>
-      </c>
-      <c r="D283" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
-      <c r="A284" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B284" s="1">
-        <v>58054.218257</v>
-      </c>
-      <c r="C284" s="1">
-        <v>22.19</v>
-      </c>
-      <c r="D284" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
-      <c r="A285" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B285" s="1">
-        <v>58054.265151</v>
-      </c>
-      <c r="C285" s="1">
-        <v>22.69</v>
-      </c>
-      <c r="D285" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
-      <c r="A286" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B286" s="1">
-        <v>58054.269050000003</v>
-      </c>
-      <c r="C286" s="1">
-        <v>22.68</v>
-      </c>
-      <c r="D286" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
-      <c r="A287" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B287" s="1">
-        <v>58054.272949999999</v>
-      </c>
-      <c r="C287" s="1">
-        <v>22.9</v>
-      </c>
-      <c r="D287" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>5</v>
+      <c r="C287">
+        <v>22.405999999999999</v>
+      </c>
+      <c r="D287">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E287" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:5">
-      <c r="A288" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B288" s="1">
-        <v>58054.288647000001</v>
-      </c>
-      <c r="C288" s="1">
-        <v>24.01</v>
-      </c>
-      <c r="D288" s="1">
-        <v>0.59</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>5</v>
+      <c r="A288" t="s">
+        <v>10</v>
+      </c>
+      <c r="B288">
+        <v>58053.463300000003</v>
+      </c>
+      <c r="C288">
+        <v>21.582000000000001</v>
+      </c>
+      <c r="D288">
+        <v>5.57E-2</v>
+      </c>
+      <c r="E288" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:5">
-      <c r="A289" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B289" s="1">
-        <v>58055.234145000002</v>
-      </c>
-      <c r="C289" s="1">
-        <v>23.184999999999999</v>
-      </c>
-      <c r="D289" s="1">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="E289" s="1" t="s">
+      <c r="A289" t="s">
+        <v>10</v>
+      </c>
+      <c r="B289">
+        <v>58053.470909999996</v>
+      </c>
+      <c r="C289">
+        <v>21.765000000000001</v>
+      </c>
+      <c r="D289">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="E289" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B290" s="1">
-        <v>58055.258014999999</v>
-      </c>
-      <c r="C290" s="1">
-        <v>22.77</v>
-      </c>
-      <c r="D290" s="1">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E290" s="1" t="s">
+      <c r="A290" t="s">
+        <v>10</v>
+      </c>
+      <c r="B290">
+        <v>58053.479220000001</v>
+      </c>
+      <c r="C290">
+        <v>21.919</v>
+      </c>
+      <c r="D290">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="E290" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:5">
-      <c r="A291" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B291" s="1">
-        <v>58055.262644000002</v>
-      </c>
-      <c r="C291" s="1">
-        <v>22.69</v>
-      </c>
-      <c r="D291" s="1">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="E291" s="1" t="s">
+      <c r="A291" t="s">
+        <v>10</v>
+      </c>
+      <c r="B291">
+        <v>58053.486550000001</v>
+      </c>
+      <c r="C291">
+        <v>21.965</v>
+      </c>
+      <c r="D291">
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="E291" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:5">
-      <c r="A292" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B292" s="1">
-        <v>58055.263573999997</v>
-      </c>
-      <c r="C292" s="1">
-        <v>22.754999999999999</v>
-      </c>
-      <c r="D292" s="1">
-        <v>0.157</v>
-      </c>
-      <c r="E292" s="1" t="s">
+      <c r="A292" t="s">
+        <v>10</v>
+      </c>
+      <c r="B292">
+        <v>58053.494720000002</v>
+      </c>
+      <c r="C292">
+        <v>22.062999999999999</v>
+      </c>
+      <c r="D292">
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="E292" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:5">
-      <c r="A293" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B293" s="1">
-        <v>58055.268433999998</v>
-      </c>
-      <c r="C293" s="1">
-        <v>23.225000000000001</v>
-      </c>
-      <c r="D293" s="1">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>0</v>
+      <c r="A293" t="s">
+        <v>10</v>
+      </c>
+      <c r="B293">
+        <v>58053.502330000003</v>
+      </c>
+      <c r="C293">
+        <v>22.263999999999999</v>
+      </c>
+      <c r="D293">
+        <v>0.19409999999999999</v>
+      </c>
+      <c r="E293" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:5">
-      <c r="A294" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B294" s="1">
-        <v>58055.272783</v>
-      </c>
-      <c r="C294" s="1">
-        <v>23.135000000000002</v>
-      </c>
-      <c r="D294" s="1">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>0</v>
+      <c r="A294" t="s">
+        <v>10</v>
+      </c>
+      <c r="B294">
+        <v>58053.510370000004</v>
+      </c>
+      <c r="C294">
+        <v>22.495999999999999</v>
+      </c>
+      <c r="D294">
+        <v>0.1249</v>
+      </c>
+      <c r="E294" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:5">
-      <c r="A295" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B295" s="1">
-        <v>58055.286520000001</v>
-      </c>
-      <c r="C295" s="1">
-        <v>22.242000000000001</v>
-      </c>
-      <c r="D295" s="1">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="E295" s="1" t="s">
+      <c r="A295" t="s">
+        <v>10</v>
+      </c>
+      <c r="B295">
+        <v>58053.517970000001</v>
+      </c>
+      <c r="C295">
+        <v>22.768000000000001</v>
+      </c>
+      <c r="D295">
+        <v>0.12640000000000001</v>
+      </c>
+      <c r="E295" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:5">
-      <c r="A296" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B296" s="1">
-        <v>58055.298268999999</v>
-      </c>
-      <c r="C296" s="1">
-        <v>22.49</v>
-      </c>
-      <c r="D296" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="E296" s="1" t="s">
+      <c r="A296" t="s">
+        <v>10</v>
+      </c>
+      <c r="B296">
+        <v>58053.525580000001</v>
+      </c>
+      <c r="C296">
+        <v>23.25</v>
+      </c>
+      <c r="D296">
+        <v>0.1731</v>
+      </c>
+      <c r="E296" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:5">
-      <c r="A297" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B297" s="1">
-        <v>58055.309334999998</v>
-      </c>
-      <c r="C297" s="1">
-        <v>22.344999999999999</v>
-      </c>
-      <c r="D297" s="1">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="E297" s="1" t="s">
+      <c r="A297" t="s">
+        <v>10</v>
+      </c>
+      <c r="B297">
+        <v>58053.531360000001</v>
+      </c>
+      <c r="C297">
+        <v>24.015999999999998</v>
+      </c>
+      <c r="D297">
+        <v>0.40029999999999999</v>
+      </c>
+      <c r="E297" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B298" s="1">
-        <v>58055.318217</v>
+        <v>58054.093273999999</v>
       </c>
       <c r="C298" s="1">
-        <v>22.515000000000001</v>
+        <v>22.19</v>
       </c>
       <c r="D298" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B299" s="1">
-        <v>58055.320749999999</v>
+        <v>58054.097274</v>
       </c>
       <c r="C299" s="1">
-        <v>22.181999999999999</v>
+        <v>22.4</v>
       </c>
       <c r="D299" s="1">
-        <v>8.1000000000000003E-2</v>
+        <v>0.16</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B300" s="1">
-        <v>58055.322216</v>
+        <v>58054.101173000003</v>
       </c>
       <c r="C300" s="1">
-        <v>22.09</v>
+        <v>22.3</v>
       </c>
       <c r="D300" s="1">
-        <v>1.9E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B301" s="1">
-        <v>58055.332290999999</v>
+        <v>58054.105072999999</v>
       </c>
       <c r="C301" s="1">
-        <v>22.309000000000001</v>
+        <v>22.56</v>
       </c>
       <c r="D301" s="1">
-        <v>8.3000000000000004E-2</v>
+        <v>0.17</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B302" s="1">
-        <v>58055.343306000002</v>
+        <v>58054.108972000002</v>
       </c>
       <c r="C302" s="1">
-        <v>22.416</v>
+        <v>22.6</v>
       </c>
       <c r="D302" s="1">
-        <v>8.6999999999999994E-2</v>
+        <v>0.17</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B303" s="1">
-        <v>58055.354831999997</v>
+        <v>58054.112871999998</v>
       </c>
       <c r="C303" s="1">
-        <v>23.119</v>
+        <v>23.07</v>
       </c>
       <c r="D303" s="1">
-        <v>0.23799999999999999</v>
+        <v>0.27</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B304" s="1">
-        <v>58055.827787000002</v>
+        <v>58054.116771000001</v>
       </c>
       <c r="C304" s="1">
-        <v>22.469000000000001</v>
+        <v>22.81</v>
       </c>
       <c r="D304" s="1">
-        <v>8.5999999999999993E-2</v>
+        <v>0.22</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B305" s="1">
-        <v>58055.845793</v>
+        <v>58054.120669999997</v>
       </c>
       <c r="C305" s="1">
-        <v>22.831</v>
+        <v>23.43</v>
       </c>
       <c r="D305" s="1">
-        <v>0.105</v>
+        <v>0.37</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B306" s="1">
-        <v>58055.877675999996</v>
+        <v>58054.144067000001</v>
       </c>
       <c r="C306" s="1">
-        <v>23.401</v>
+        <v>23.63</v>
       </c>
       <c r="D306" s="1">
-        <v>0.17799999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5642,13 +5651,13 @@
         <v>5</v>
       </c>
       <c r="B307" s="1">
-        <v>58055.970818000002</v>
+        <v>58054.190961</v>
       </c>
       <c r="C307" s="1">
-        <v>22.15</v>
+        <v>22.93</v>
       </c>
       <c r="D307" s="1">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>5</v>
@@ -5659,13 +5668,13 @@
         <v>5</v>
       </c>
       <c r="B308" s="1">
-        <v>58056.088902000003</v>
+        <v>58054.198759999999</v>
       </c>
       <c r="C308" s="1">
-        <v>22.49</v>
+        <v>23.05</v>
       </c>
       <c r="D308" s="1">
-        <v>0.15</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>5</v>
@@ -5676,10 +5685,10 @@
         <v>5</v>
       </c>
       <c r="B309" s="1">
-        <v>58056.095100999999</v>
+        <v>58054.206558999998</v>
       </c>
       <c r="C309" s="1">
-        <v>22.2</v>
+        <v>22.46</v>
       </c>
       <c r="D309" s="1">
         <v>0.15</v>
@@ -5689,479 +5698,479 @@
       </c>
     </row>
     <row r="310" spans="1:5">
-      <c r="A310" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B310" s="3">
-        <v>58056.181299999997</v>
-      </c>
-      <c r="C310" s="3">
-        <v>22.891999999999999</v>
-      </c>
-      <c r="D310" s="3">
-        <v>0.185</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>1</v>
+      <c r="A310" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B310" s="1">
+        <v>58054.210458000001</v>
+      </c>
+      <c r="C310" s="1">
+        <v>22.73</v>
+      </c>
+      <c r="D310" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="311" spans="1:5">
-      <c r="A311" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B311" s="3">
-        <v>58056.185100000002</v>
-      </c>
-      <c r="C311" s="3">
-        <v>23.3</v>
-      </c>
-      <c r="D311" s="3">
-        <v>0.2515</v>
-      </c>
-      <c r="E311" s="2" t="s">
-        <v>1</v>
+      <c r="A311" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B311" s="1">
+        <v>58054.214357999997</v>
+      </c>
+      <c r="C311" s="1">
+        <v>22.11</v>
+      </c>
+      <c r="D311" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="312" spans="1:5">
-      <c r="A312" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B312" s="3">
-        <v>58056.188800000004</v>
-      </c>
-      <c r="C312" s="3">
-        <v>23.170999999999999</v>
-      </c>
-      <c r="D312" s="3">
-        <v>0.22850000000000001</v>
-      </c>
-      <c r="E312" s="2" t="s">
-        <v>1</v>
+      <c r="A312" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B312" s="1">
+        <v>58054.218257</v>
+      </c>
+      <c r="C312" s="1">
+        <v>22.19</v>
+      </c>
+      <c r="D312" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="313" spans="1:5">
-      <c r="A313" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B313" s="3">
-        <v>58056.193500000001</v>
-      </c>
-      <c r="C313" s="3">
-        <v>23.292000000000002</v>
-      </c>
-      <c r="D313" s="3">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="E313" s="2" t="s">
-        <v>1</v>
+      <c r="A313" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B313" s="1">
+        <v>58054.265151</v>
+      </c>
+      <c r="C313" s="1">
+        <v>22.69</v>
+      </c>
+      <c r="D313" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="314" spans="1:5">
-      <c r="A314" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B314" s="3">
-        <v>58056.197200000002</v>
-      </c>
-      <c r="C314" s="3">
-        <v>23.420999999999999</v>
-      </c>
-      <c r="D314" s="3">
-        <v>0.26750000000000002</v>
-      </c>
-      <c r="E314" s="2" t="s">
-        <v>1</v>
+      <c r="A314" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B314" s="1">
+        <v>58054.269050000003</v>
+      </c>
+      <c r="C314" s="1">
+        <v>22.68</v>
+      </c>
+      <c r="D314" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="315" spans="1:5">
-      <c r="A315" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B315" s="3">
-        <v>58056.201000000001</v>
-      </c>
-      <c r="C315" s="3">
-        <v>23.427</v>
-      </c>
-      <c r="D315" s="3">
-        <v>0.26950000000000002</v>
-      </c>
-      <c r="E315" s="2" t="s">
-        <v>1</v>
+      <c r="A315" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B315" s="1">
+        <v>58054.272949999999</v>
+      </c>
+      <c r="C315" s="1">
+        <v>22.9</v>
+      </c>
+      <c r="D315" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="316" spans="1:5">
-      <c r="A316" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B316" s="3">
-        <v>58056.205999999998</v>
-      </c>
-      <c r="C316" s="3">
-        <v>23.431000000000001</v>
-      </c>
-      <c r="D316" s="3">
-        <v>0.26950000000000002</v>
-      </c>
-      <c r="E316" s="2" t="s">
-        <v>1</v>
+      <c r="A316" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B316" s="1">
+        <v>58054.288647000001</v>
+      </c>
+      <c r="C316" s="1">
+        <v>24.01</v>
+      </c>
+      <c r="D316" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="317" spans="1:5">
-      <c r="A317" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B317" s="3">
-        <v>58056.209799999997</v>
-      </c>
-      <c r="C317" s="3">
-        <v>23.417000000000002</v>
-      </c>
-      <c r="D317" s="3">
-        <v>0.27350000000000002</v>
-      </c>
-      <c r="E317" s="2" t="s">
+      <c r="A317" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B317" s="1">
+        <v>58055.234145000002</v>
+      </c>
+      <c r="C317" s="1">
+        <v>23.184999999999999</v>
+      </c>
+      <c r="D317" s="1">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E317" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:5">
-      <c r="A318" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B318" s="3">
-        <v>58056.213499999998</v>
-      </c>
-      <c r="C318" s="3">
-        <v>23.795999999999999</v>
-      </c>
-      <c r="D318" s="3">
-        <v>0.376</v>
-      </c>
-      <c r="E318" s="2" t="s">
+      <c r="A318" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B318" s="1">
+        <v>58055.258014999999</v>
+      </c>
+      <c r="C318" s="1">
+        <v>22.77</v>
+      </c>
+      <c r="D318" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E318" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:5">
-      <c r="A319" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B319" s="3">
-        <v>58056.217400000001</v>
-      </c>
-      <c r="C319" s="3">
-        <v>24.071000000000002</v>
-      </c>
-      <c r="D319" s="3">
-        <v>0.495</v>
-      </c>
-      <c r="E319" s="2" t="s">
+      <c r="A319" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B319" s="1">
+        <v>58055.262644000002</v>
+      </c>
+      <c r="C319" s="1">
+        <v>22.69</v>
+      </c>
+      <c r="D319" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E319" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:5">
-      <c r="A320" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B320" s="3">
-        <v>58056.221100000002</v>
-      </c>
-      <c r="C320" s="3">
-        <v>23.922999999999998</v>
-      </c>
-      <c r="D320" s="3">
-        <v>0.438</v>
-      </c>
-      <c r="E320" s="2" t="s">
+      <c r="A320" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B320" s="1">
+        <v>58055.263573999997</v>
+      </c>
+      <c r="C320" s="1">
+        <v>22.754999999999999</v>
+      </c>
+      <c r="D320" s="1">
+        <v>0.157</v>
+      </c>
+      <c r="E320" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:5">
-      <c r="A321" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B321" s="3">
-        <v>58056.224800000004</v>
-      </c>
-      <c r="C321" s="3">
-        <v>24.175000000000001</v>
-      </c>
-      <c r="D321" s="3">
-        <v>0.5575</v>
-      </c>
-      <c r="E321" s="2" t="s">
-        <v>1</v>
+      <c r="A321" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B321" s="1">
+        <v>58055.268433999998</v>
+      </c>
+      <c r="C321" s="1">
+        <v>23.225000000000001</v>
+      </c>
+      <c r="D321" s="1">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:5">
-      <c r="A322" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B322" s="3">
-        <v>58056.228900000002</v>
-      </c>
-      <c r="C322" s="3">
-        <v>24.481999999999999</v>
-      </c>
-      <c r="D322" s="3">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="E322" s="2" t="s">
-        <v>1</v>
+      <c r="A322" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B322" s="1">
+        <v>58055.272783</v>
+      </c>
+      <c r="C322" s="1">
+        <v>23.135000000000002</v>
+      </c>
+      <c r="D322" s="1">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:5">
-      <c r="A323" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B323" s="3">
-        <v>58056.2327</v>
-      </c>
-      <c r="C323" s="3">
-        <v>24.152999999999999</v>
-      </c>
-      <c r="D323" s="3">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="E323" s="2" t="s">
+      <c r="A323" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B323" s="1">
+        <v>58055.286520000001</v>
+      </c>
+      <c r="C323" s="1">
+        <v>22.242000000000001</v>
+      </c>
+      <c r="D323" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E323" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:5">
-      <c r="A324" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B324" s="3">
-        <v>58056.236400000002</v>
-      </c>
-      <c r="C324" s="3">
-        <v>24.387</v>
-      </c>
-      <c r="D324" s="3">
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="E324" s="2" t="s">
+      <c r="A324" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B324" s="1">
+        <v>58055.298268999999</v>
+      </c>
+      <c r="C324" s="1">
+        <v>22.49</v>
+      </c>
+      <c r="D324" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="E324" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:5">
-      <c r="A325" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B325" s="3">
-        <v>58056.240700000002</v>
-      </c>
-      <c r="C325" s="3">
-        <v>23.873000000000001</v>
-      </c>
-      <c r="D325" s="3">
-        <v>0.43149999999999999</v>
-      </c>
-      <c r="E325" s="2" t="s">
+      <c r="A325" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B325" s="1">
+        <v>58055.309334999998</v>
+      </c>
+      <c r="C325" s="1">
+        <v>22.344999999999999</v>
+      </c>
+      <c r="D325" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="E325" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:5">
-      <c r="A326" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B326" s="3">
-        <v>58056.244400000003</v>
-      </c>
-      <c r="C326" s="3">
-        <v>24.135000000000002</v>
-      </c>
-      <c r="D326" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E326" s="2" t="s">
-        <v>1</v>
+      <c r="A326" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B326" s="1">
+        <v>58055.318217</v>
+      </c>
+      <c r="C326" s="1">
+        <v>22.515000000000001</v>
+      </c>
+      <c r="D326" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:5">
-      <c r="A327" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B327" s="3">
-        <v>58056.248200000002</v>
-      </c>
-      <c r="C327" s="3">
-        <v>23.806000000000001</v>
-      </c>
-      <c r="D327" s="3">
-        <v>0.40350000000000003</v>
-      </c>
-      <c r="E327" s="2" t="s">
+      <c r="A327" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B327" s="1">
+        <v>58055.320749999999</v>
+      </c>
+      <c r="C327" s="1">
+        <v>22.181999999999999</v>
+      </c>
+      <c r="D327" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E327" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:5">
-      <c r="A328" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B328" s="3">
-        <v>58056.252200000003</v>
-      </c>
-      <c r="C328" s="3">
-        <v>23.552</v>
-      </c>
-      <c r="D328" s="3">
-        <v>0.33350000000000002</v>
-      </c>
-      <c r="E328" s="2" t="s">
+      <c r="A328" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B328" s="1">
+        <v>58055.322216</v>
+      </c>
+      <c r="C328" s="1">
+        <v>22.09</v>
+      </c>
+      <c r="D328" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E328" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:5">
-      <c r="A329" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B329" s="3">
-        <v>58056.255899999996</v>
-      </c>
-      <c r="C329" s="3">
-        <v>23.687000000000001</v>
-      </c>
-      <c r="D329" s="3">
-        <v>0.36249999999999999</v>
-      </c>
-      <c r="E329" s="2" t="s">
+      <c r="A329" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B329" s="1">
+        <v>58055.332290999999</v>
+      </c>
+      <c r="C329" s="1">
+        <v>22.309000000000001</v>
+      </c>
+      <c r="D329" s="1">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E329" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:5">
-      <c r="A330" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B330" s="3">
-        <v>58056.259700000002</v>
-      </c>
-      <c r="C330" s="3">
-        <v>23.62</v>
-      </c>
-      <c r="D330" s="3">
-        <v>0.34949999999999998</v>
-      </c>
-      <c r="E330" s="2" t="s">
+      <c r="A330" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B330" s="1">
+        <v>58055.343306000002</v>
+      </c>
+      <c r="C330" s="1">
+        <v>22.416</v>
+      </c>
+      <c r="D330" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E330" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:5">
-      <c r="A331" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B331" s="3">
-        <v>58056.263700000003</v>
-      </c>
-      <c r="C331" s="3">
-        <v>22.902999999999999</v>
-      </c>
-      <c r="D331" s="3">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="E331" s="2" t="s">
+      <c r="A331" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B331" s="1">
+        <v>58055.354831999997</v>
+      </c>
+      <c r="C331" s="1">
+        <v>23.119</v>
+      </c>
+      <c r="D331" s="1">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="E331" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:5">
-      <c r="A332" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B332" s="3">
-        <v>58056.267500000002</v>
-      </c>
-      <c r="C332" s="3">
-        <v>23.091000000000001</v>
-      </c>
-      <c r="D332" s="3">
-        <v>0.23250000000000001</v>
-      </c>
-      <c r="E332" s="2" t="s">
+      <c r="A332" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B332" s="1">
+        <v>58055.827787000002</v>
+      </c>
+      <c r="C332" s="1">
+        <v>22.469000000000001</v>
+      </c>
+      <c r="D332" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E332" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:5">
-      <c r="A333" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B333" s="3">
-        <v>58056.271200000003</v>
-      </c>
-      <c r="C333" s="3">
-        <v>23.233000000000001</v>
-      </c>
-      <c r="D333" s="3">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="E333" s="2" t="s">
+      <c r="A333" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B333" s="1">
+        <v>58055.845793</v>
+      </c>
+      <c r="C333" s="1">
+        <v>22.831</v>
+      </c>
+      <c r="D333" s="1">
+        <v>0.105</v>
+      </c>
+      <c r="E333" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:5">
-      <c r="A334" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B334" s="3">
-        <v>58056.275199999996</v>
-      </c>
-      <c r="C334" s="3">
-        <v>22.988</v>
-      </c>
-      <c r="D334" s="3">
-        <v>0.217</v>
-      </c>
-      <c r="E334" s="2" t="s">
+      <c r="A334" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B334" s="1">
+        <v>58055.877675999996</v>
+      </c>
+      <c r="C334" s="1">
+        <v>23.401</v>
+      </c>
+      <c r="D334" s="1">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="E334" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:5">
-      <c r="A335" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B335" s="3">
-        <v>58056.278899999998</v>
-      </c>
-      <c r="C335" s="3">
-        <v>23.23</v>
-      </c>
-      <c r="D335" s="3">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="E335" s="2" t="s">
-        <v>1</v>
+      <c r="A335" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B335" s="1">
+        <v>58055.970818000002</v>
+      </c>
+      <c r="C335" s="1">
+        <v>22.15</v>
+      </c>
+      <c r="D335" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="336" spans="1:5">
-      <c r="A336" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B336" s="3">
-        <v>58056.282700000003</v>
-      </c>
-      <c r="C336" s="3">
-        <v>22.69</v>
-      </c>
-      <c r="D336" s="3">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="E336" s="2" t="s">
-        <v>1</v>
+      <c r="A336" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B336" s="1">
+        <v>58056.088902000003</v>
+      </c>
+      <c r="C336" s="1">
+        <v>22.49</v>
+      </c>
+      <c r="D336" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:5">
-      <c r="A337" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B337" s="3">
-        <v>58056.286399999997</v>
-      </c>
-      <c r="C337" s="3">
-        <v>23.18</v>
-      </c>
-      <c r="D337" s="3">
-        <v>0.2505</v>
-      </c>
-      <c r="E337" s="2" t="s">
-        <v>1</v>
+      <c r="A337" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B337" s="1">
+        <v>58056.095100999999</v>
+      </c>
+      <c r="C337" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="D337" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6169,13 +6178,13 @@
         <v>1</v>
       </c>
       <c r="B338" s="3">
-        <v>58056.290200000003</v>
+        <v>58056.181299999997</v>
       </c>
       <c r="C338" s="3">
-        <v>22.748999999999999</v>
+        <v>22.891999999999999</v>
       </c>
       <c r="D338" s="3">
-        <v>0.1835</v>
+        <v>0.185</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>1</v>
@@ -6186,15 +6195,491 @@
         <v>1</v>
       </c>
       <c r="B339" s="3">
+        <v>58056.185100000002</v>
+      </c>
+      <c r="C339" s="3">
+        <v>23.3</v>
+      </c>
+      <c r="D339" s="3">
+        <v>0.2515</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B340" s="3">
+        <v>58056.188800000004</v>
+      </c>
+      <c r="C340" s="3">
+        <v>23.170999999999999</v>
+      </c>
+      <c r="D340" s="3">
+        <v>0.22850000000000001</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B341" s="3">
+        <v>58056.193500000001</v>
+      </c>
+      <c r="C341" s="3">
+        <v>23.292000000000002</v>
+      </c>
+      <c r="D341" s="3">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B342" s="3">
+        <v>58056.197200000002</v>
+      </c>
+      <c r="C342" s="3">
+        <v>23.420999999999999</v>
+      </c>
+      <c r="D342" s="3">
+        <v>0.26750000000000002</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B343" s="3">
+        <v>58056.201000000001</v>
+      </c>
+      <c r="C343" s="3">
+        <v>23.427</v>
+      </c>
+      <c r="D343" s="3">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B344" s="3">
+        <v>58056.205999999998</v>
+      </c>
+      <c r="C344" s="3">
+        <v>23.431000000000001</v>
+      </c>
+      <c r="D344" s="3">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B345" s="3">
+        <v>58056.209799999997</v>
+      </c>
+      <c r="C345" s="3">
+        <v>23.417000000000002</v>
+      </c>
+      <c r="D345" s="3">
+        <v>0.27350000000000002</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B346" s="3">
+        <v>58056.213499999998</v>
+      </c>
+      <c r="C346" s="3">
+        <v>23.795999999999999</v>
+      </c>
+      <c r="D346" s="3">
+        <v>0.376</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B347" s="3">
+        <v>58056.217400000001</v>
+      </c>
+      <c r="C347" s="3">
+        <v>24.071000000000002</v>
+      </c>
+      <c r="D347" s="3">
+        <v>0.495</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B348" s="3">
+        <v>58056.221100000002</v>
+      </c>
+      <c r="C348" s="3">
+        <v>23.922999999999998</v>
+      </c>
+      <c r="D348" s="3">
+        <v>0.438</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B349" s="3">
+        <v>58056.224800000004</v>
+      </c>
+      <c r="C349" s="3">
+        <v>24.175000000000001</v>
+      </c>
+      <c r="D349" s="3">
+        <v>0.5575</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B350" s="3">
+        <v>58056.228900000002</v>
+      </c>
+      <c r="C350" s="3">
+        <v>24.481999999999999</v>
+      </c>
+      <c r="D350" s="3">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B351" s="3">
+        <v>58056.2327</v>
+      </c>
+      <c r="C351" s="3">
+        <v>24.152999999999999</v>
+      </c>
+      <c r="D351" s="3">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B352" s="3">
+        <v>58056.236400000002</v>
+      </c>
+      <c r="C352" s="3">
+        <v>24.387</v>
+      </c>
+      <c r="D352" s="3">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B353" s="3">
+        <v>58056.240700000002</v>
+      </c>
+      <c r="C353" s="3">
+        <v>23.873000000000001</v>
+      </c>
+      <c r="D353" s="3">
+        <v>0.43149999999999999</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B354" s="3">
+        <v>58056.244400000003</v>
+      </c>
+      <c r="C354" s="3">
+        <v>24.135000000000002</v>
+      </c>
+      <c r="D354" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B355" s="3">
+        <v>58056.248200000002</v>
+      </c>
+      <c r="C355" s="3">
+        <v>23.806000000000001</v>
+      </c>
+      <c r="D355" s="3">
+        <v>0.40350000000000003</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B356" s="3">
+        <v>58056.252200000003</v>
+      </c>
+      <c r="C356" s="3">
+        <v>23.552</v>
+      </c>
+      <c r="D356" s="3">
+        <v>0.33350000000000002</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B357" s="3">
+        <v>58056.255899999996</v>
+      </c>
+      <c r="C357" s="3">
+        <v>23.687000000000001</v>
+      </c>
+      <c r="D357" s="3">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B358" s="3">
+        <v>58056.259700000002</v>
+      </c>
+      <c r="C358" s="3">
+        <v>23.62</v>
+      </c>
+      <c r="D358" s="3">
+        <v>0.34949999999999998</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B359" s="3">
+        <v>58056.263700000003</v>
+      </c>
+      <c r="C359" s="3">
+        <v>22.902999999999999</v>
+      </c>
+      <c r="D359" s="3">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B360" s="3">
+        <v>58056.267500000002</v>
+      </c>
+      <c r="C360" s="3">
+        <v>23.091000000000001</v>
+      </c>
+      <c r="D360" s="3">
+        <v>0.23250000000000001</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B361" s="3">
+        <v>58056.271200000003</v>
+      </c>
+      <c r="C361" s="3">
+        <v>23.233000000000001</v>
+      </c>
+      <c r="D361" s="3">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B362" s="3">
+        <v>58056.275199999996</v>
+      </c>
+      <c r="C362" s="3">
+        <v>22.988</v>
+      </c>
+      <c r="D362" s="3">
+        <v>0.217</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B363" s="3">
+        <v>58056.278899999998</v>
+      </c>
+      <c r="C363" s="3">
+        <v>23.23</v>
+      </c>
+      <c r="D363" s="3">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B364" s="3">
+        <v>58056.282700000003</v>
+      </c>
+      <c r="C364" s="3">
+        <v>22.69</v>
+      </c>
+      <c r="D364" s="3">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B365" s="3">
+        <v>58056.286399999997</v>
+      </c>
+      <c r="C365" s="3">
+        <v>23.18</v>
+      </c>
+      <c r="D365" s="3">
+        <v>0.2505</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B366" s="3">
+        <v>58056.290200000003</v>
+      </c>
+      <c r="C366" s="3">
+        <v>22.748999999999999</v>
+      </c>
+      <c r="D366" s="3">
+        <v>0.1835</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B367" s="3">
         <v>58056.293899999997</v>
       </c>
-      <c r="C339" s="3">
+      <c r="C367" s="3">
         <v>22.84</v>
       </c>
-      <c r="D339" s="3">
+      <c r="D367" s="3">
         <v>0.19650000000000001</v>
       </c>
-      <c r="E339" s="2" t="s">
+      <c r="E367" s="2" t="s">
         <v>1</v>
       </c>
     </row>
